--- a/EXPORT_FILES/ВУНЦ=ОТКАЗАНО.xlsx
+++ b/EXPORT_FILES/ВУНЦ=ОТКАЗАНО.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\TEMPLATE_FILES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\backend\my-nest\TEMPLATE_FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B9400A3F-9D2E-4E77-BBC2-B10594F3C11D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{21076D55-19CE-4ABE-87AC-69BE6B1A9A71}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>№ п/п</t>
   </si>
@@ -125,21 +125,9 @@
     <t>Категория профессиональной пригодности</t>
   </si>
   <si>
-    <t>2 предмет</t>
-  </si>
-  <si>
-    <t>3 предмет</t>
-  </si>
-  <si>
-    <t>4 предмет*</t>
-  </si>
-  <si>
     <t>Доп.испытание</t>
   </si>
   <si>
-    <t>1 предмет</t>
-  </si>
-  <si>
     <t>Результаты индивидуальных достижений</t>
   </si>
   <si>
@@ -191,58 +179,94 @@
     <t>${table:items.quota}</t>
   </si>
   <si>
-    <t>${table:items.subject_5}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_1}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_2}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_3}</t>
-  </si>
-  <si>
-    <t>${table:items.subject_4}</t>
-  </si>
-  <si>
     <t>${table:items.expulsion}</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Qwe Qwe Qwe</t>
-  </si>
-  <si>
-    <t>Asd Asd Asd</t>
-  </si>
-  <si>
-    <t>Zxc Zxc Zxc</t>
-  </si>
-  <si>
-    <t>12.03.1312</t>
-  </si>
-  <si>
-    <t>17.01.2025</t>
-  </si>
-  <si>
-    <t>12.03.1231</t>
+    <t>Математика</t>
+  </si>
+  <si>
+    <t>Русский язык</t>
+  </si>
+  <si>
+    <t>Физика</t>
+  </si>
+  <si>
+    <t>Информатика</t>
+  </si>
+  <si>
+    <t>География</t>
+  </si>
+  <si>
+    <t>История</t>
+  </si>
+  <si>
+    <t>Обществознание</t>
+  </si>
+  <si>
+    <t>${table:items.math}</t>
+  </si>
+  <si>
+    <t>${table:items.rus}</t>
+  </si>
+  <si>
+    <t>${table:items.phiz}</t>
+  </si>
+  <si>
+    <t>${table:items.inf}</t>
+  </si>
+  <si>
+    <t>${table:items.geo}</t>
+  </si>
+  <si>
+    <t>${table:items.hist}</t>
+  </si>
+  <si>
+    <t>${table:items.obsh}</t>
+  </si>
+  <si>
+    <t>${table:items.space}</t>
+  </si>
+  <si>
+    <t>Беляев Артем Сергеевич</t>
+  </si>
+  <si>
+    <t>05.12.2006</t>
+  </si>
+  <si>
+    <t>Левобережного и Железнодорожного районов города Воронеж Воронежской области, г.Воронеж</t>
+  </si>
+  <si>
+    <t>МВО</t>
+  </si>
+  <si>
+    <t> (основное, )</t>
+  </si>
+  <si>
+    <t>ВБД (ч.5 ст.71 ФЗ № 273-ФЗ)</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t> (, )</t>
-  </si>
-  <si>
-    <t>сирота (ч.5 ст.71 ФЗ № 273-ФЗ)</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
   <si>
     <t>0</t>
@@ -600,7 +624,118 @@
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Обычный_NABOR2005" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="27">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1324,7 +1459,7 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>447675</xdr:rowOff>
@@ -1394,38 +1529,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataCellStyle="Обычный_NABOR2005" dataDxfId="22" displayName="Таблица2" headerRowDxfId="23" id="2" mc:Ignorable="xr xr3" name="Таблица2" ref="A2:Q29" tableBorderDxfId="21" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
-  <autoFilter ref="A2:Q29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="17">
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="20" id="1" name="№ п/п" xr3:uid="{00000000-0010-0000-0000-000001000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="19" id="2" name="Фамилия, имя, отчество " xr3:uid="{00000000-0010-0000-0000-000002000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="18" id="3" name="Дата рождения  " xr3:uid="{00000000-0010-0000-0000-000003000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="17" id="4" name="Военный комиссариат (СВУ, в/ч)" xr3:uid="{00000000-0010-0000-0000-000004000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="16" id="5" name="Вид (род, ову), военный округ" xr3:uid="{00000000-0010-0000-0000-000005000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="15" id="6" name="Образование" xr3:uid="{00000000-0010-0000-0000-000006000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="14" id="7" name="Особые права (приемущества) при приеме" xr3:uid="{00000000-0010-0000-0000-000007000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="13" id="8" name="Категория профессиональной пригодности" xr3:uid="{00000000-0010-0000-0000-000008000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="12" id="9" name="1 предмет" xr3:uid="{00000000-0010-0000-0000-000009000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="11" id="10" name="2 предмет" xr3:uid="{00000000-0010-0000-0000-00000A000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="10" id="11" name="3 предмет" xr3:uid="{00000000-0010-0000-0000-00000B000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="9" id="12" name="4 предмет*" xr3:uid="{00000000-0010-0000-0000-00000C000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="8" id="13" name="Доп.испытание" xr3:uid="{00000000-0010-0000-0000-00000D000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="7" id="14" name="Уровень физической подготовленности" xr3:uid="{00000000-0010-0000-0000-00000E000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="6" id="15" name="Результаты индивидуальных достижений" xr3:uid="{00000000-0010-0000-0000-00000F000000}"/>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="5" id="16" name="Сумма баллов" xr3:uid="{00000000-0010-0000-0000-000010000000}">
-      <calculatedColumnFormula>SUM(I3:O3)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" dataCellStyle="Обычный_NABOR2005" dataDxfId="25" displayName="Таблица2" headerRowDxfId="26" id="2" mc:Ignorable="xr xr3" name="Таблица2" ref="A2:T29" tableBorderDxfId="24" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+  <autoFilter ref="A2:T29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="20">
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="23" id="1" name="№ п/п" xr3:uid="{00000000-0010-0000-0000-000001000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="22" id="2" name="Фамилия, имя, отчество " xr3:uid="{00000000-0010-0000-0000-000002000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="21" id="3" name="Дата рождения  " xr3:uid="{00000000-0010-0000-0000-000003000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="20" id="4" name="Военный комиссариат (СВУ, в/ч)" xr3:uid="{00000000-0010-0000-0000-000004000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="19" id="5" name="Вид (род, ову), военный округ" xr3:uid="{00000000-0010-0000-0000-000005000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="18" id="6" name="Образование" xr3:uid="{00000000-0010-0000-0000-000006000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="17" id="7" name="Особые права (приемущества) при приеме" xr3:uid="{00000000-0010-0000-0000-000007000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="16" id="8" name="Категория профессиональной пригодности" xr3:uid="{00000000-0010-0000-0000-000008000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="15" id="9" name="Математика" xr3:uid="{00000000-0010-0000-0000-000009000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="14" id="10" name="Русский язык" xr3:uid="{00000000-0010-0000-0000-00000A000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="13" id="11" name="Физика" xr3:uid="{00000000-0010-0000-0000-00000B000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="2" id="12" name="Информатика" xr3:uid="{06168AF9-D972-42A2-9BB7-1E243600C2FF}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="1" id="13" name="География" xr3:uid="{A9B79E9F-EED6-4DA5-B9B7-6C15477E9787}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="0" id="14" name="История" xr3:uid="{EF1BF08D-FDEE-4D53-9DFC-2BFAAAF15122}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="12" id="15" name="Обществознание" xr3:uid="{00000000-0010-0000-0000-00000C000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="11" id="16" name="Доп.испытание" xr3:uid="{00000000-0010-0000-0000-00000D000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="10" id="17" name="Уровень физической подготовленности" xr3:uid="{00000000-0010-0000-0000-00000E000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="9" id="18" name="Результаты индивидуальных достижений" xr3:uid="{00000000-0010-0000-0000-00000F000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="8" id="19" name="Сумма баллов" xr3:uid="{00000000-0010-0000-0000-000010000000}">
+      <calculatedColumnFormula>SUM(I3:R3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="4" id="17" name="Причина отказа" xr3:uid="{00000000-0010-0000-0000-000011000000}"/>
+    <tableColumn dataCellStyle="Обычный_NABOR2005" dataDxfId="7" id="20" name="Причина отказа" xr3:uid="{00000000-0010-0000-0000-000011000000}"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Отказ_Т" displayName="Отказ_Т" ref="B1:B11" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Отказ_Т" displayName="Отказ_Т" ref="B1:B11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="B1:B11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отказ" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Отказ" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1755,10 +1893,10 @@
   <sheetPr codeName="Лист2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView colorId="32" defaultGridColor="0" showOutlineSymbols="0" tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="90">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView colorId="32" defaultGridColor="0" showOutlineSymbols="0" tabSelected="1" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScaleSheetLayoutView="90">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1770,14 +1908,14 @@
     <col customWidth="1" max="5" min="5" style="6" width="10.88671875"/>
     <col customWidth="1" max="6" min="6" style="1" width="19.44140625"/>
     <col customWidth="1" max="7" min="7" style="1" width="15.6640625"/>
-    <col customWidth="1" max="15" min="8" style="2" width="8.6640625"/>
-    <col customWidth="1" max="16" min="16" style="4" width="10.6640625"/>
-    <col customWidth="1" max="17" min="17" style="2" width="29.44140625"/>
-    <col max="16384" min="18" style="2" width="9.109375"/>
+    <col customWidth="1" max="18" min="8" style="2" width="8.6640625"/>
+    <col customWidth="1" max="19" min="19" style="4" width="10.6640625"/>
+    <col customWidth="1" max="20" min="20" style="2" width="29.44140625"/>
+    <col max="16384" min="21" style="2" width="9.109375"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="96" r="1" spans="1:18" x14ac:dyDescent="0.25"/>
-    <row customHeight="1" ht="148.5" r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="96" r="1" spans="1:21" x14ac:dyDescent="0.25"/>
+    <row customHeight="1" ht="148.5" r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
@@ -1803,46 +1941,55 @@
         <v>15</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="Q2" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="T2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="3"/>
-    </row>
-    <row ht="93.6" r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>44</v>
+      <c r="U2" s="3"/>
+    </row>
+    <row ht="93.6" r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>53</v>
@@ -1851,148 +1998,103 @@
         <v>54</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="O3" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="P3" s="29">
-        <f>SUM(I3:O3)</f>
-      </c>
       <c r="Q3" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="29">
+        <f>SUM(I3:R3)</f>
+      </c>
+      <c r="T3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row ht="93.6" r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O4" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="93.6" r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="O5" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q5" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3" s="3"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
       <c r="D6" s="12"/>
       <c r="E6" s="11"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2001,18 +2103,21 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -2021,18 +2126,21 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
       <c r="D8" s="12"/>
       <c r="E8" s="11"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -2041,15 +2149,17 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="21"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="11"/>
       <c r="F9" s="14"/>
       <c r="G9" s="18"/>
@@ -2061,18 +2171,20 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="21"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
       <c r="D10" s="12"/>
       <c r="E10" s="11"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -2081,10 +2193,13 @@
       <c r="M10" s="19"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="21"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="21"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -2100,10 +2215,13 @@
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="21"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="21"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -2119,10 +2237,13 @@
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="21"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="21"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -2138,10 +2259,13 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
       <c r="O13" s="19"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="21"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -2157,10 +2281,13 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2176,10 +2303,13 @@
       <c r="M15" s="19"/>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="21"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -2195,10 +2325,13 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="21"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="21"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -2214,10 +2347,13 @@
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="21"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="21"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -2233,10 +2369,13 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
       <c r="O18" s="19"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="21"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="21"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -2252,10 +2391,13 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="21"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -2271,10 +2413,13 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
       <c r="O20" s="19"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="21"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="21"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -2290,10 +2435,13 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
       <c r="O21" s="19"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="21"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="21"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -2309,10 +2457,13 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
       <c r="O22" s="19"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="21"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="21"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -2328,10 +2479,13 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="21"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="21"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -2347,10 +2501,13 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="21"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="21"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -2366,10 +2523,13 @@
       <c r="M25" s="19"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="21"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="21"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -2385,10 +2545,13 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
       <c r="O26" s="19"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="21"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="21"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -2404,10 +2567,13 @@
       <c r="M27" s="19"/>
       <c r="N27" s="19"/>
       <c r="O27" s="19"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="21"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="21"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -2423,65 +2589,33 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
       <c r="O28" s="19"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="21"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="21"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="21"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="28"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="21"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2489,7 +2623,7 @@
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="G6:G7 G9:G29" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="Q4:Q29" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="T4:T29" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Отказ</formula1>
     </dataValidation>
   </dataValidations>
@@ -2522,7 +2656,7 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2532,7 +2666,7 @@
     </row>
     <row r="3" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,12 +2681,12 @@
     </row>
     <row r="6" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2567,12 +2701,12 @@
     </row>
     <row r="10" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
